--- a/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_42_10.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_42_10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,20 +429,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Distancia</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>ativos</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>melhor rota</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>caminho</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -453,169 +463,86 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2550.066666666667</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>2716</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2366</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.03190779685974121</v>
+        <v>3144</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34, 10, 1, 23, 4, 13, 40, 25, 35, 33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 23 -&gt; 40 -&gt; 35 -&gt; 13 -&gt; 10 -&gt; 4 -&gt; 1 -&gt; 25 -&gt; 33 -&gt; 34 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 16 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 23 -&gt; 24 -&gt; 32 -&gt; 41 -&gt; 42 -&gt; 40 -&gt; 39 -&gt; 36 -&gt; 35 -&gt; 29 -&gt; 13 -&gt; 12 -&gt; 11 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 33 -&gt; 27 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 29 -&gt; 13 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04128241539001465</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2628.933333333333</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>2824</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2515</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.03044076760609945</v>
+        <v>2345</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8, 2, 21, 27, 12, 19, 31, 39, 38, 14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 21 -&gt; 14 -&gt; 12 -&gt; 8 -&gt; 2 -&gt; 27 -&gt; 38 -&gt; 39 -&gt; 31 -&gt; 19 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 23 -&gt; 22 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 11 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 37 -&gt; 38 -&gt; 39 -&gt; 38 -&gt; 31 -&gt; 20 -&gt; 19 -&gt; 20 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04161930084228516</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>2626.166666666667</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>2780</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2467</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.03437751928965251</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2445.333333333333</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2598</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2325</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.03130982716878255</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2208.833333333333</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2376</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2022</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.03401962916056315</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1902.3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2066</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1725</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.04021251996358235</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3105.033333333333</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3438</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2818</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.04622416496276856</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2856.666666666667</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2990</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2649</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.04575613339742025</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2707.633333333333</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3025</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2325</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.04602758089701334</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2722.133333333333</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2876</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2590</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.04169445832570394</v>
+        <v>2357</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32, 42, 20, 17, 16, 1, 15, 11, 37, 9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 9 -&gt; 17 -&gt; 16 -&gt; 20 -&gt; 32 -&gt; 42 -&gt; 37 -&gt; 15 -&gt; 11 -&gt; 1 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 9 -&gt; 13 -&gt; 17 -&gt; 16 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 32 -&gt; 41 -&gt; 42 -&gt; 40 -&gt; 39 -&gt; 38 -&gt; 37 -&gt; 30 -&gt; 17 -&gt; 16 -&gt; 15 -&gt; 11 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.04343318939208984</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_42_10.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_42_10.xlsx
@@ -454,7 +454,7 @@
         <v>3144</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02944374084472656</v>
+        <v>0.03160381317138672</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_42_10.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_42_10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Qtd_Nós</t>
+          <t>Índice</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
-        <is>
-          <t>Ativos</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
         <is>
           <t>Distancia</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -445,16 +450,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>2422.766666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>3144</v>
+        <v>2679</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03160381317138672</v>
+        <v>2268</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.02952713171641032</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2425</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2552</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2364</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.02819689909617106</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2287.866666666667</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2411</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2171</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.03103157679239909</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2155.466666666667</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2234</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2080</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.02859067916870117</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2157.3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2251</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1922</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.03163760503133138</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1786.433333333333</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1614</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03176081975301107</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2599.766666666667</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2811</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2395</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.03093178272247315</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2434.8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2550</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2294</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03075393040974935</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2456.833333333333</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2761</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2082</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.03124056657155355</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2268.2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2326</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2230</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.02914390563964844</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_42_10.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Haversiano/PLN_42_10.xlsx
@@ -462,7 +462,7 @@
         <v>2268</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02952713171641032</v>
+        <v>0.0300232728322347</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>2364</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02819689909617106</v>
+        <v>0.02882332801818848</v>
       </c>
     </row>
     <row r="4">
@@ -496,7 +496,7 @@
         <v>2171</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03103157679239909</v>
+        <v>0.03170905907948812</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         <v>2080</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02859067916870117</v>
+        <v>0.02913390000661214</v>
       </c>
     </row>
     <row r="6">
@@ -530,7 +530,7 @@
         <v>1922</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03163760503133138</v>
+        <v>0.03233194351196289</v>
       </c>
     </row>
     <row r="7">
@@ -547,7 +547,7 @@
         <v>1614</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03176081975301107</v>
+        <v>0.03288116455078125</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +564,7 @@
         <v>2395</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03093178272247315</v>
+        <v>0.03200588226318359</v>
       </c>
     </row>
     <row r="9">
@@ -581,7 +581,7 @@
         <v>2294</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03075393040974935</v>
+        <v>0.03191271622975667</v>
       </c>
     </row>
     <row r="10">
@@ -598,7 +598,7 @@
         <v>2082</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03124056657155355</v>
+        <v>0.03223469257354736</v>
       </c>
     </row>
     <row r="11">
@@ -615,7 +615,7 @@
         <v>2230</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02914390563964844</v>
+        <v>0.03011999130249023</v>
       </c>
     </row>
   </sheetData>
